--- a/runtime/results_task_affinity/Task_Affinity_Times.xlsx
+++ b/runtime/results_task_affinity/Task_Affinity_Times.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Execution_Time" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>find_numa</t>
   </si>
@@ -64,12 +64,15 @@
   <si>
     <t>ABS</t>
   </si>
+  <si>
+    <t>Execution with fibonacci x with cutoff y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -106,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,6 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -223,7 +235,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Execution_Time!$A$4:$A$27</c:f>
+              <c:f>Execution_Time!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -304,81 +316,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Execution_Time!$B$4:$B$27</c:f>
+              <c:f>Execution_Time!$B$6:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.62523099999999998</c:v>
+                  <c:v>1.4160619999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31597799999999998</c:v>
+                  <c:v>0.74029599999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21713099999999999</c:v>
+                  <c:v>0.51459100000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16647999999999999</c:v>
+                  <c:v>0.405445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15099000000000001</c:v>
+                  <c:v>0.33687600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125356</c:v>
+                  <c:v>0.29541699999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.112694</c:v>
+                  <c:v>0.2571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9611000000000005E-2</c:v>
+                  <c:v>0.23272799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8450000000000001E-2</c:v>
+                  <c:v>0.209843</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.3399000000000001E-2</c:v>
+                  <c:v>0.19209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7276999999999998E-2</c:v>
+                  <c:v>0.17589099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.109E-2</c:v>
+                  <c:v>0.16386700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5632999999999997E-2</c:v>
+                  <c:v>0.152452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1768000000000003E-2</c:v>
+                  <c:v>0.142036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9117999999999997E-2</c:v>
+                  <c:v>0.13261500000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5348000000000001E-2</c:v>
+                  <c:v>0.126585</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2439E-2</c:v>
+                  <c:v>0.119337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0921000000000001E-2</c:v>
+                  <c:v>0.11454499999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9210999999999998E-2</c:v>
+                  <c:v>0.10863299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7396000000000001E-2</c:v>
+                  <c:v>0.103994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5154E-2</c:v>
+                  <c:v>0.10084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4360999999999998E-2</c:v>
+                  <c:v>9.6296999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.1603000000000001E-2</c:v>
+                  <c:v>9.3205999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0499E-2</c:v>
+                  <c:v>8.9636999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,7 +429,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Execution_Time!$A$4:$A$27</c:f>
+              <c:f>Execution_Time!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -498,81 +510,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Execution_Time!$E$4:$E$27</c:f>
+              <c:f>Execution_Time!$E$6:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.54937599999999998</c:v>
+                  <c:v>1.620468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27714100000000003</c:v>
+                  <c:v>0.81446600000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18742500000000001</c:v>
+                  <c:v>0.54954599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1469</c:v>
+                  <c:v>0.41758400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12007</c:v>
+                  <c:v>0.35411799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10296</c:v>
+                  <c:v>0.30859700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1952000000000006E-2</c:v>
+                  <c:v>0.27253699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3343E-2</c:v>
+                  <c:v>0.244562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4409000000000003E-2</c:v>
+                  <c:v>0.22256000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8752999999999995E-2</c:v>
+                  <c:v>0.20539299999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2483999999999998E-2</c:v>
+                  <c:v>0.18740100000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8604999999999997E-2</c:v>
+                  <c:v>0.17526700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.4130999999999999E-2</c:v>
+                  <c:v>0.163247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0842999999999999E-2</c:v>
+                  <c:v>0.151752</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9056000000000002E-2</c:v>
+                  <c:v>0.142843</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5413000000000002E-2</c:v>
+                  <c:v>0.13469600000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4096999999999997E-2</c:v>
+                  <c:v>0.128798</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1286999999999997E-2</c:v>
+                  <c:v>0.122629</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0291E-2</c:v>
+                  <c:v>0.11672299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8353999999999999E-2</c:v>
+                  <c:v>0.112165</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6978999999999998E-2</c:v>
+                  <c:v>0.10737099999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5903999999999998E-2</c:v>
+                  <c:v>0.103185</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4386E-2</c:v>
+                  <c:v>9.9579000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3223999999999997E-2</c:v>
+                  <c:v>9.5368999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +623,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Execution_Time!$A$4:$A$27</c:f>
+              <c:f>Execution_Time!$A$6:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -692,45 +704,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Execution_Time!$H$4:$H$27</c:f>
+              <c:f>Execution_Time!$H$6:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.54742800000000003</c:v>
+                  <c:v>1.621124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56584299999999998</c:v>
+                  <c:v>1.2809360000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54761300000000002</c:v>
+                  <c:v>1.1135870000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53178999999999998</c:v>
+                  <c:v>1.0280260000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58840999999999999</c:v>
+                  <c:v>1.032106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38298700000000002</c:v>
+                  <c:v>1.065539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60596700000000003</c:v>
+                  <c:v>1.067855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64439800000000003</c:v>
+                  <c:v>1.0775980000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65314499999999998</c:v>
+                  <c:v>1.085237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63864100000000001</c:v>
+                  <c:v>1.0823929999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67093999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.67627099999999996</c:v>
+                  <c:v>1.0842810000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.80831799999999998</c:v>
@@ -783,11 +792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179929576"/>
-        <c:axId val="179928008"/>
+        <c:axId val="136861792"/>
+        <c:axId val="136862184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179929576"/>
+        <c:axId val="136861792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179928008"/>
+        <c:crossAx val="136862184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -894,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179928008"/>
+        <c:axId val="136862184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179929576"/>
+        <c:crossAx val="136861792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,7 +1199,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed!$A$5:$A$28</c:f>
+              <c:f>Detailed!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1271,7 +1280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed!$C$5:$C$28</c:f>
+              <c:f>Detailed!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1279,73 +1288,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3499999999999996E-4</c:v>
+                  <c:v>7.0699999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5592000000000006E-2</c:v>
+                  <c:v>0.33166899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11766</c:v>
+                  <c:v>0.79485899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.182335</c:v>
+                  <c:v>1.1569100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12130000000000001</c:v>
+                  <c:v>1.4190100000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14571799999999999</c:v>
+                  <c:v>1.53176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.153756</c:v>
+                  <c:v>1.57673</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16785</c:v>
+                  <c:v>1.4227099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22747899999999999</c:v>
+                  <c:v>1.5483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.149976</c:v>
+                  <c:v>1.5216400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18501600000000001</c:v>
+                  <c:v>1.5618700000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17543</c:v>
+                  <c:v>1.47997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.203677</c:v>
+                  <c:v>1.2814000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.237258</c:v>
+                  <c:v>1.29579</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16653000000000001</c:v>
+                  <c:v>1.1781699999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.24024699999999999</c:v>
+                  <c:v>1.2224900000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18718599999999999</c:v>
+                  <c:v>1.2118800000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13297200000000001</c:v>
+                  <c:v>1.1571100000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.177343</c:v>
+                  <c:v>1.07369</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.19808100000000001</c:v>
+                  <c:v>1.08693</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.161056</c:v>
+                  <c:v>0.992398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.15765899999999999</c:v>
+                  <c:v>0.97136800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.162831</c:v>
+                  <c:v>0.94748900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,7 +1393,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed!$A$5:$A$28</c:f>
+              <c:f>Detailed!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1465,7 +1474,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed!$H$5:$H$28</c:f>
+              <c:f>Detailed!$H$7:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1473,37 +1482,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.639700000000005</c:v>
+                  <c:v>81.550600000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.516399999999997</c:v>
+                  <c:v>80.5501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.546100000000003</c:v>
+                  <c:v>74.290800000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.717300000000002</c:v>
+                  <c:v>69.100899999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9106500000000004</c:v>
+                  <c:v>63.281700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.990900000000003</c:v>
+                  <c:v>59.987900000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.487400000000001</c:v>
+                  <c:v>53.707900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.1875</c:v>
+                  <c:v>51.049199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.473799999999997</c:v>
+                  <c:v>52.429499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.312600000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.907399999999999</c:v>
+                  <c:v>52.489899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>19.553899999999999</c:v>
@@ -1556,11 +1562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179928792"/>
-        <c:axId val="181641440"/>
+        <c:axId val="136859440"/>
+        <c:axId val="136862576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179928792"/>
+        <c:axId val="136859440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181641440"/>
+        <c:crossAx val="136862576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181641440"/>
+        <c:axId val="136862576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +1780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179928792"/>
+        <c:crossAx val="136859440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1963,7 +1969,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed!$A$5:$A$28</c:f>
+              <c:f>Detailed!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2044,7 +2050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed!$D$5:$D$28</c:f>
+              <c:f>Detailed!$D$7:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2052,73 +2058,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.136126</c:v>
+                  <c:v>2.1073000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2523999999999995E-2</c:v>
+                  <c:v>1.4104E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0265999999999995E-2</c:v>
+                  <c:v>1.0385999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9526999999999997E-2</c:v>
+                  <c:v>8.5730000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0867999999999997E-2</c:v>
+                  <c:v>7.293E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2047000000000001E-2</c:v>
+                  <c:v>6.3660000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8603999999999999E-2</c:v>
+                  <c:v>5.5979999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3796E-2</c:v>
+                  <c:v>5.045E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0831000000000001E-2</c:v>
+                  <c:v>4.6360000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8617E-2</c:v>
+                  <c:v>4.2240000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5926999999999999E-2</c:v>
+                  <c:v>3.8080000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3864E-2</c:v>
+                  <c:v>3.4940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6474999999999999E-2</c:v>
+                  <c:v>3.2889999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0872999999999999E-2</c:v>
+                  <c:v>3.0140000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9273999999999999E-2</c:v>
+                  <c:v>2.81E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8133E-2</c:v>
+                  <c:v>2.63E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7059000000000001E-2</c:v>
+                  <c:v>2.4429999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6660000000000001E-2</c:v>
+                  <c:v>2.3530000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5498E-2</c:v>
+                  <c:v>2.225E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4633E-2</c:v>
+                  <c:v>2.1050000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4094000000000001E-2</c:v>
+                  <c:v>2.0149999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3336000000000001E-2</c:v>
+                  <c:v>1.9109999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3102000000000001E-2</c:v>
+                  <c:v>1.825E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,7 +2163,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed!$A$5:$A$28</c:f>
+              <c:f>Detailed!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2238,7 +2244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed!$I$5:$I$28</c:f>
+              <c:f>Detailed!$I$7:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2246,37 +2252,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7749699999999997</c:v>
+                  <c:v>84.252600000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.223500000000001</c:v>
+                  <c:v>33.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.308199999999999</c:v>
+                  <c:v>12.685700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1945700000000006</c:v>
+                  <c:v>5.1147299999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85917500000000002</c:v>
+                  <c:v>3.3607499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.43</c:v>
+                  <c:v>2.8450299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2776699999999996</c:v>
+                  <c:v>3.8388100000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5344600000000002</c:v>
+                  <c:v>1.33708</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9996700000000001</c:v>
+                  <c:v>2.6811199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0332400000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66975700000000005</c:v>
+                  <c:v>2.1558000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.60886300000000004</c:v>
@@ -2329,11 +2332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179374344"/>
-        <c:axId val="179374736"/>
+        <c:axId val="136863360"/>
+        <c:axId val="136863752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179374344"/>
+        <c:axId val="136863360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179374736"/>
+        <c:crossAx val="136863752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179374736"/>
+        <c:axId val="136863752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179374344"/>
+        <c:crossAx val="136863360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2736,7 +2739,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed_Avg!$A$5:$A$28</c:f>
+              <c:f>Detailed_Avg!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2817,7 +2820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed_Avg!$C$5:$C$28</c:f>
+              <c:f>Detailed_Avg!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2825,73 +2828,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6899999999999999E-4</c:v>
+                  <c:v>1.93E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6000000000000001E-5</c:v>
+                  <c:v>4.5000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.6999999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.8000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.1E-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>4.1E-5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>4.1E-5</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>4.1999999999999998E-5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.3999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.3999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.5000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.6E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.6E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.8000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.6E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.8999999999999998E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.8000000000000001E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2933,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed_Avg!$A$5:$A$28</c:f>
+              <c:f>Detailed_Avg!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3011,7 +3014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed_Avg!$H$5:$H$28</c:f>
+              <c:f>Detailed_Avg!$H$7:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3019,37 +3022,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3999999999999997E-5</c:v>
+                  <c:v>5.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6000000000000001E-4</c:v>
+                  <c:v>1.2999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1699999999999999E-4</c:v>
+                  <c:v>1.34E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5000000000000003E-5</c:v>
+                  <c:v>1.5200000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8299999999999999E-4</c:v>
+                  <c:v>1.5799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.11E-4</c:v>
+                  <c:v>1.64E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0699999999999999E-4</c:v>
+                  <c:v>2.12E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.92E-4</c:v>
+                  <c:v>2.4699999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1100000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.4200000000000002E-4</c:v>
+                  <c:v>2.7900000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.2000000000000003E-4</c:v>
@@ -3102,11 +3102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="179371208"/>
-        <c:axId val="179373560"/>
+        <c:axId val="103134200"/>
+        <c:axId val="103134592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179371208"/>
+        <c:axId val="103134200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3205,7 +3205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179373560"/>
+        <c:crossAx val="103134592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3213,7 +3213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179373560"/>
+        <c:axId val="103134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179371208"/>
+        <c:crossAx val="103134200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3509,7 +3509,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed_Avg!$A$5:$A$28</c:f>
+              <c:f>Detailed_Avg!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3590,7 +3590,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed_Avg!$D$5:$D$28</c:f>
+              <c:f>Detailed_Avg!$D$7:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3598,73 +3598,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1999999999999999E-5</c:v>
+                  <c:v>3.4999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4E-5</c:v>
+                  <c:v>3.4999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4E-5</c:v>
+                  <c:v>3.4999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6000000000000001E-5</c:v>
+                  <c:v>3.6999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6999999999999998E-5</c:v>
+                  <c:v>3.8999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6000000000000001E-5</c:v>
+                  <c:v>4.0000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8000000000000002E-5</c:v>
+                  <c:v>4.0000000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8000000000000002E-5</c:v>
+                  <c:v>4.1999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.1999999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6999999999999997E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0000000000000003E-5</c:v>
+                  <c:v>4.3999999999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,7 +3703,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Detailed_Avg!$A$5:$A$28</c:f>
+              <c:f>Detailed_Avg!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3784,7 +3784,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Detailed_Avg!$I$5:$I$28</c:f>
+              <c:f>Detailed_Avg!$I$7:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3792,37 +3792,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3000000000000003E-5</c:v>
+                  <c:v>5.5000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6000000000000004E-5</c:v>
+                  <c:v>8.7000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>1.4200000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5100000000000001E-4</c:v>
+                  <c:v>6.3999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8999999999999999E-5</c:v>
+                  <c:v>5.5999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.93E-4</c:v>
+                  <c:v>6.6000000000000005E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3999999999999999E-4</c:v>
+                  <c:v>5.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1999999999999997E-5</c:v>
+                  <c:v>6.3999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.23E-4</c:v>
+                  <c:v>5.5999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.43E-4</c:v>
+                  <c:v>5.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.6400000000000002E-4</c:v>
@@ -3875,11 +3872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178678016"/>
-        <c:axId val="178678800"/>
+        <c:axId val="103136160"/>
+        <c:axId val="103136552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178678016"/>
+        <c:axId val="103136160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +3975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178678800"/>
+        <c:crossAx val="103136552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +3983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178678800"/>
+        <c:axId val="103136552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4093,7 +4090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178678016"/>
+        <c:crossAx val="103136160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4282,7 +4279,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Count!$A$5:$A$28</c:f>
+              <c:f>Count!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4363,7 +4360,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Count!$C$5:$C$28</c:f>
+              <c:f>Count!$C$7:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4371,73 +4368,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5325443786982254</c:v>
+                  <c:v>3.6632124352331603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2099.7777777777778</c:v>
+                  <c:v>7370.4222222222215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3180</c:v>
+                  <c:v>23378.205882352941</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4798.28947368421</c:v>
+                  <c:v>31267.837837837844</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2958.5365853658536</c:v>
+                  <c:v>38351.621621621627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3554.0975609756092</c:v>
+                  <c:v>40309.473684210527</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3750.1463414634145</c:v>
+                  <c:v>40428.974358974359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3996.4285714285716</c:v>
+                  <c:v>36479.743589743586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5290.2093023255811</c:v>
+                  <c:v>38707.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3487.8139534883721</c:v>
+                  <c:v>38041</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4204.909090909091</c:v>
+                  <c:v>38094.390243902439</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3898.4444444444443</c:v>
+                  <c:v>36096.829268292684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4629.022727272727</c:v>
+                  <c:v>31253.658536585368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5272.4</c:v>
+                  <c:v>30852.142857142859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3784.7727272727275</c:v>
+                  <c:v>28051.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5222.760869565217</c:v>
+                  <c:v>29106.904761904767</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4069.260869565217</c:v>
+                  <c:v>28854.285714285717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2770.25</c:v>
+                  <c:v>27550.238095238099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3855.282608695652</c:v>
+                  <c:v>25564.047619047622</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3961.62</c:v>
+                  <c:v>25277.441860465115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3355.3333333333335</c:v>
+                  <c:v>22554.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3217.5306122448978</c:v>
+                  <c:v>22589.953488372092</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3392.3125</c:v>
+                  <c:v>22034.627906976744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,7 +4473,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Count!$A$5:$A$28</c:f>
+              <c:f>Count!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4557,7 +4554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Count!$H$5:$H$28</c:f>
+              <c:f>Count!$H$7:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -4565,37 +4562,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1930579.411764706</c:v>
+                  <c:v>1853422.7272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>804943.75</c:v>
+                  <c:v>1388794.8275862068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>259663.125</c:v>
+                  <c:v>571467.69230769237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187637.32718894011</c:v>
+                  <c:v>515678.35820895515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198014.44444444444</c:v>
+                  <c:v>416326.9736842105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>187246.9964664311</c:v>
+                  <c:v>379670.25316455698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>202589.1891891892</c:v>
+                  <c:v>327487.19512195123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184480.67632850242</c:v>
+                  <c:v>240798.11320754717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118060.95890410958</c:v>
+                  <c:v>212265.18218623483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103899.03536977492</c:v>
+                  <c:v>188135.84229390681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72828.654970760224</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>61105.937499999993</c:v>
@@ -4648,11 +4645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236831208"/>
-        <c:axId val="236576872"/>
+        <c:axId val="103669736"/>
+        <c:axId val="103670128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236831208"/>
+        <c:axId val="103669736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,7 +4748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236576872"/>
+        <c:crossAx val="103670128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4759,7 +4756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236576872"/>
+        <c:axId val="103670128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4866,7 +4863,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236831208"/>
+        <c:crossAx val="103669736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5055,7 +5052,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Count!$A$5:$A$28</c:f>
+              <c:f>Count!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5136,7 +5133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Count!$D$5:$D$28</c:f>
+              <c:f>Count!$D$7:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5144,73 +5141,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4253.9375</c:v>
+                  <c:v>602.0857142857144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2721.2941176470586</c:v>
+                  <c:v>402.97142857142859</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2066.6470588235293</c:v>
+                  <c:v>296.74285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1653.5277777777776</c:v>
+                  <c:v>231.70270270270274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1374.8108108108108</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1167.9722222222222</c:v>
+                  <c:v>159.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1015.8947368421052</c:v>
+                  <c:v>139.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>889.36842105263156</c:v>
+                  <c:v>120.11904761904762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>790.53846153846155</c:v>
+                  <c:v>110.38095238095239</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>733.76923076923083</c:v>
+                  <c:v>98.232558139534888</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>664.79487179487182</c:v>
+                  <c:v>88.558139534883722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>611.89743589743591</c:v>
+                  <c:v>81.255813953488371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>563.29787234042556</c:v>
+                  <c:v>76.488372093023244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>521.82499999999993</c:v>
+                  <c:v>70.093023255813961</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>494.20512820512818</c:v>
+                  <c:v>65.348837209302317</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>453.32499999999993</c:v>
+                  <c:v>61.162790697674417</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>437.41025641025647</c:v>
+                  <c:v>56.813953488372086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>416.5</c:v>
+                  <c:v>53.477272727272727</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>397.38461538461536</c:v>
+                  <c:v>50.56818181818182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>365.82499999999999</c:v>
+                  <c:v>47.840909090909093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>352.34999999999997</c:v>
+                  <c:v>45.795454545454547</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>333.4</c:v>
+                  <c:v>43.43181818181818</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>327.55</c:v>
+                  <c:v>41.477272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5249,7 +5246,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Count!$A$5:$A$28</c:f>
+              <c:f>Count!$A$7:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5330,7 +5327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Count!$I$5:$I$28</c:f>
+              <c:f>Count!$I$7:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -5338,37 +5335,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174999.09090909088</c:v>
+                  <c:v>1531865.4545454546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>463467.10526315786</c:v>
+                  <c:v>383091.9540229885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66541</c:v>
+                  <c:v>89335.915492957749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54268.675496688738</c:v>
+                  <c:v>79917.65625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22030.128205128207</c:v>
+                  <c:v>60013.392857142855</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69585.492227979266</c:v>
+                  <c:v>43106.515151515145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44840.5</c:v>
+                  <c:v>66186.379310344826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106431.92307692309</c:v>
+                  <c:v>20891.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17935.739910313903</c:v>
+                  <c:v>47877.142857142855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18501.100917431191</c:v>
+                  <c:v>43116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2756.2016460905352</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2306.2992424242425</c:v>
@@ -5421,11 +5418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="236577656"/>
-        <c:axId val="236578048"/>
+        <c:axId val="103672088"/>
+        <c:axId val="103672480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236577656"/>
+        <c:axId val="103672088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,7 +5521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236578048"/>
+        <c:crossAx val="103672480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5532,7 +5529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236578048"/>
+        <c:axId val="103672480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236577656"/>
+        <c:crossAx val="103672088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9527,13 +9524,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9562,13 +9559,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9592,13 +9589,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9629,13 +9626,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9661,13 +9658,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9698,13 +9695,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9730,13 +9727,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10024,9 +10021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10035,528 +10034,528 @@
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.62523099999999998</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.54937599999999998</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.54742800000000003</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>0.31597799999999998</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>0.27714100000000003</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>0.56584299999999998</v>
-      </c>
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.21713099999999999</v>
+        <v>1.4160619999999999</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.18742500000000001</v>
+        <v>1.620468</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.54761300000000002</v>
+        <v>1.621124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.16647999999999999</v>
+        <v>0.74029599999999995</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0.1469</v>
+        <v>0.81446600000000002</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0.53178999999999998</v>
+        <v>1.2809360000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0.15099000000000001</v>
+        <v>0.51459100000000002</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0.12007</v>
+        <v>0.54954599999999998</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>0.58840999999999999</v>
+        <v>1.1135870000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.125356</v>
+        <v>0.405445</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0.10296</v>
+        <v>0.41758400000000001</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>0.38298700000000002</v>
+        <v>1.0280260000000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.112694</v>
+        <v>0.33687600000000001</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>9.1952000000000006E-2</v>
+        <v>0.35411799999999999</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>0.60596700000000003</v>
+        <v>1.032106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>9.9611000000000005E-2</v>
+        <v>0.29541699999999999</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>8.3343E-2</v>
+        <v>0.30859700000000001</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>0.64439800000000003</v>
+        <v>1.065539</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>8.8450000000000001E-2</v>
+        <v>0.2571</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>7.4409000000000003E-2</v>
+        <v>0.27253699999999997</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>0.65314499999999998</v>
+        <v>1.067855</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>8.3399000000000001E-2</v>
+        <v>0.23272799999999999</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>6.8752999999999995E-2</v>
+        <v>0.244562</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>0.63864100000000001</v>
+        <v>1.0775980000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>7.7276999999999998E-2</v>
+        <v>0.209843</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>6.2483999999999998E-2</v>
+        <v>0.22256000000000001</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>0.67093999999999998</v>
+        <v>1.085237</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>7.109E-2</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>5.8604999999999997E-2</v>
+        <v>0.20539299999999999</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>0.67627099999999996</v>
+        <v>1.0823929999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6.5632999999999997E-2</v>
+        <v>0.17589099999999999</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>5.4130999999999999E-2</v>
+        <v>0.18740100000000001</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>0.80831799999999998</v>
+        <v>1.0842810000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>6.1768000000000003E-2</v>
+        <v>0.16386700000000001</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>5.0842999999999999E-2</v>
-      </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>0.78097799999999995</v>
+        <v>0.17526700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>5.9117999999999997E-2</v>
+        <v>0.152452</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>4.9056000000000002E-2</v>
+        <v>0.163247</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18">
-        <v>0.83228999999999997</v>
+        <v>0.80831799999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>5.5348000000000001E-2</v>
+        <v>0.142036</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>4.5413000000000002E-2</v>
+        <v>0.151752</v>
       </c>
       <c r="G19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19">
-        <v>0.89947900000000003</v>
+        <v>0.78097799999999995</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>5.2439E-2</v>
+        <v>0.13261500000000001</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>4.4096999999999997E-2</v>
+        <v>0.142843</v>
       </c>
       <c r="G20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20">
-        <v>0.54512700000000003</v>
+        <v>0.83228999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>5.0921000000000001E-2</v>
+        <v>0.126585</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>4.1286999999999997E-2</v>
+        <v>0.13469600000000001</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>0.89452699999999996</v>
+        <v>0.89947900000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>4.9210999999999998E-2</v>
+        <v>0.119337</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>4.0291E-2</v>
+        <v>0.128798</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>0.93850199999999995</v>
+        <v>0.54512700000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>4.7396000000000001E-2</v>
+        <v>0.11454499999999999</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>3.8353999999999999E-2</v>
+        <v>0.122629</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H23">
-        <v>0.82129799999999997</v>
+        <v>0.89452699999999996</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>4.5154E-2</v>
+        <v>0.10863299999999999</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24">
-        <v>3.6978999999999998E-2</v>
+        <v>0.11672299999999999</v>
       </c>
       <c r="G24">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H24">
-        <v>0.99218700000000004</v>
+        <v>0.93850199999999995</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>4.4360999999999998E-2</v>
+        <v>0.103994</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>3.5903999999999998E-2</v>
+        <v>0.112165</v>
       </c>
       <c r="G25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>0.42810999999999999</v>
+        <v>0.82129799999999997</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>4.1603000000000001E-2</v>
+        <v>0.10084</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>3.4386E-2</v>
+        <v>0.10737099999999999</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26">
-        <v>1.0406</v>
+        <v>0.99218700000000004</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>9.6296999999999994E-2</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>0.103185</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <v>0.42810999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>9.3205999999999997E-2</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>9.9579000000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>1.0406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>4.0499E-2</v>
-      </c>
-      <c r="D27">
+      <c r="B29">
+        <v>8.9636999999999994E-2</v>
+      </c>
+      <c r="D29">
         <v>24</v>
       </c>
-      <c r="E27">
-        <v>3.3223999999999997E-2</v>
-      </c>
-      <c r="G27">
+      <c r="E29">
+        <v>9.5368999999999995E-2</v>
+      </c>
+      <c r="G29">
         <v>24</v>
       </c>
-      <c r="H27">
+      <c r="H29">
         <v>1.005134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D6:D28"/>
+      <selection activeCell="F7" sqref="F7:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,675 +10564,668 @@
     <col min="7" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>9.3499999999999996E-4</v>
-      </c>
-      <c r="D6">
-        <v>0.136126</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0.51258599999999999</v>
-      </c>
-      <c r="H6">
-        <v>65.639700000000005</v>
-      </c>
-      <c r="I6">
-        <v>5.7749699999999997</v>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.5592000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>9.2523999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.46270499999999998</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>51.516399999999997</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>35.223500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.11766</v>
+        <v>7.0699999999999995E-4</v>
       </c>
       <c r="D8">
-        <v>7.0265999999999995E-2</v>
+        <v>2.1073000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0.27080900000000002</v>
+        <v>0.14679700000000001</v>
       </c>
       <c r="H8">
-        <v>41.546100000000003</v>
+        <v>81.550600000000003</v>
       </c>
       <c r="I8">
-        <v>13.308199999999999</v>
+        <v>84.252600000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.182335</v>
+        <v>0.33166899999999999</v>
       </c>
       <c r="D9">
-        <v>5.9526999999999997E-2</v>
+        <v>1.4104E-2</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0.26943099999999998</v>
+        <v>0.103939</v>
       </c>
       <c r="H9">
-        <v>40.717300000000002</v>
+        <v>80.5501</v>
       </c>
       <c r="I9">
-        <v>8.1945700000000006</v>
+        <v>33.329000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.12130000000000001</v>
+        <v>0.79485899999999998</v>
       </c>
       <c r="D10">
-        <v>5.0867999999999997E-2</v>
+        <v>1.0385999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0.220634</v>
+        <v>8.2979999999999998E-2</v>
       </c>
       <c r="H10">
-        <v>8.9106500000000004</v>
+        <v>74.290800000000004</v>
       </c>
       <c r="I10">
-        <v>0.85917500000000002</v>
+        <v>12.685700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.14571799999999999</v>
+        <v>1.1569100000000001</v>
       </c>
       <c r="D11">
-        <v>4.2047000000000001E-2</v>
+        <v>8.5730000000000008E-3</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0.171904</v>
+        <v>5.2162E-2</v>
       </c>
       <c r="H11">
-        <v>52.990900000000003</v>
+        <v>69.100899999999996</v>
       </c>
       <c r="I11">
-        <v>13.43</v>
+        <v>5.1147299999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.153756</v>
+        <v>1.4190100000000001</v>
       </c>
       <c r="D12">
-        <v>3.8603999999999999E-2</v>
+        <v>7.293E-3</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0.234733</v>
+        <v>4.8305000000000001E-2</v>
       </c>
       <c r="H12">
-        <v>22.487400000000001</v>
+        <v>63.281700000000001</v>
       </c>
       <c r="I12">
-        <v>6.2776699999999996</v>
+        <v>3.3607499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.16785</v>
+        <v>1.53176</v>
       </c>
       <c r="D13">
-        <v>3.3796E-2</v>
+        <v>6.3660000000000001E-3</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>0.28789199999999998</v>
+        <v>4.3494999999999999E-2</v>
       </c>
       <c r="H13">
-        <v>38.1875</v>
+        <v>59.987900000000003</v>
       </c>
       <c r="I13">
-        <v>5.5344600000000002</v>
+        <v>2.8450299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.22747899999999999</v>
+        <v>1.57673</v>
       </c>
       <c r="D14">
-        <v>3.0831000000000001E-2</v>
+        <v>5.5979999999999997E-3</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>0.15162400000000001</v>
+        <v>3.9919000000000003E-2</v>
       </c>
       <c r="H14">
-        <v>34.473799999999997</v>
+        <v>53.707900000000002</v>
       </c>
       <c r="I14">
-        <v>3.9996700000000001</v>
+        <v>3.8388100000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.149976</v>
+        <v>1.4227099999999999</v>
       </c>
       <c r="D15">
-        <v>2.8617E-2</v>
+        <v>5.045E-3</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0.220578</v>
+        <v>4.0193E-2</v>
       </c>
       <c r="H15">
-        <v>32.312600000000003</v>
+        <v>51.049199999999999</v>
       </c>
       <c r="I15">
-        <v>4.0332400000000002</v>
+        <v>1.33708</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.18501600000000001</v>
+        <v>1.5483</v>
       </c>
       <c r="D16">
-        <v>2.5926999999999999E-2</v>
+        <v>4.6360000000000004E-3</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.192939</v>
+        <v>3.8445E-2</v>
       </c>
       <c r="H16">
-        <v>24.907399999999999</v>
+        <v>52.429499999999997</v>
       </c>
       <c r="I16">
-        <v>0.66975700000000005</v>
+        <v>2.6811199999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.17543</v>
+        <v>1.5216400000000001</v>
       </c>
       <c r="D17">
-        <v>2.3864E-2</v>
+        <v>4.2240000000000003E-3</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>0.22519400000000001</v>
+        <v>3.4540000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>19.553899999999999</v>
+        <v>52.489899999999999</v>
       </c>
       <c r="I17">
-        <v>0.60886300000000004</v>
+        <v>2.1558000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.203677</v>
+        <v>1.5618700000000001</v>
       </c>
       <c r="D18">
-        <v>2.6474999999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>0.21379799999999999</v>
-      </c>
-      <c r="H18">
-        <v>15.805899999999999</v>
-      </c>
-      <c r="I18">
-        <v>5.7211999999999999E-2</v>
+        <v>3.8080000000000002E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.237258</v>
+        <v>1.47997</v>
       </c>
       <c r="D19">
-        <v>2.0872999999999999E-2</v>
+        <v>3.4940000000000001E-3</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>0.23247699999999999</v>
+        <v>0.22519400000000001</v>
       </c>
       <c r="H19">
-        <v>22.216899999999999</v>
+        <v>19.553899999999999</v>
       </c>
       <c r="I19">
-        <v>0.95514699999999997</v>
+        <v>0.60886300000000004</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.16653000000000001</v>
+        <v>1.2814000000000001</v>
       </c>
       <c r="D20">
-        <v>1.9273999999999999E-2</v>
+        <v>3.2889999999999998E-3</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>0.148613</v>
+        <v>0.21379799999999999</v>
       </c>
       <c r="H20">
-        <v>17.064499999999999</v>
+        <v>15.805899999999999</v>
       </c>
       <c r="I20">
-        <v>2.3661999999999999E-2</v>
+        <v>5.7211999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.24024699999999999</v>
+        <v>1.29579</v>
       </c>
       <c r="D21">
-        <v>1.8133E-2</v>
+        <v>3.0140000000000002E-3</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>0.14505899999999999</v>
+        <v>0.23247699999999999</v>
       </c>
       <c r="H21">
-        <v>20.1952</v>
+        <v>22.216899999999999</v>
       </c>
       <c r="I21">
-        <v>1.2190300000000001</v>
+        <v>0.95514699999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.18718599999999999</v>
+        <v>1.1781699999999999</v>
       </c>
       <c r="D22">
-        <v>1.7059000000000001E-2</v>
+        <v>2.81E-3</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>0.15675700000000001</v>
+        <v>0.148613</v>
       </c>
       <c r="H22">
-        <v>13.209</v>
+        <v>17.064499999999999</v>
       </c>
       <c r="I22">
-        <v>3.5928000000000002E-2</v>
+        <v>2.3661999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.13297200000000001</v>
+        <v>1.2224900000000001</v>
       </c>
       <c r="D23">
-        <v>1.6660000000000001E-2</v>
+        <v>2.63E-3</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>0.13858899999999999</v>
+        <v>0.14505899999999999</v>
       </c>
       <c r="H23">
-        <v>17.459</v>
+        <v>20.1952</v>
       </c>
       <c r="I23">
-        <v>6.5398999999999999E-2</v>
+        <v>1.2190300000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.177343</v>
+        <v>1.2118800000000001</v>
       </c>
       <c r="D24">
-        <v>1.5498E-2</v>
+        <v>2.4429999999999999E-3</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>0.209617</v>
+        <v>0.15675700000000001</v>
       </c>
       <c r="H24">
-        <v>9.7436100000000003</v>
+        <v>13.209</v>
       </c>
       <c r="I24">
-        <v>3.2932999999999997E-2</v>
+        <v>3.5928000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.19808100000000001</v>
+        <v>1.1571100000000001</v>
       </c>
       <c r="D25">
-        <v>1.4633E-2</v>
+        <v>2.3530000000000001E-3</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>0.18789</v>
+        <v>0.13858899999999999</v>
       </c>
       <c r="H25">
-        <v>19.794699999999999</v>
+        <v>17.459</v>
       </c>
       <c r="I25">
-        <v>1.9800000000000002E-2</v>
+        <v>6.5398999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.161056</v>
+        <v>1.07369</v>
       </c>
       <c r="D26">
-        <v>1.4094000000000001E-2</v>
+        <v>2.225E-3</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>0.138937</v>
+        <v>0.209617</v>
       </c>
       <c r="H26">
-        <v>9.2752300000000005</v>
+        <v>9.7436100000000003</v>
       </c>
       <c r="I26">
-        <v>1.6390999999999999E-2</v>
+        <v>3.2932999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.15765899999999999</v>
+        <v>1.08693</v>
       </c>
       <c r="D27">
-        <v>1.3336000000000001E-2</v>
+        <v>2.1050000000000001E-3</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>0.15173400000000001</v>
+        <v>0.18789</v>
       </c>
       <c r="H27">
-        <v>18.859000000000002</v>
+        <v>19.794699999999999</v>
       </c>
       <c r="I27">
-        <v>2.0694000000000001E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.162831</v>
+        <v>0.992398</v>
       </c>
       <c r="D28">
-        <v>1.3102000000000001E-2</v>
+        <v>2.0149999999999999E-3</v>
       </c>
       <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>0.138937</v>
+      </c>
+      <c r="H28">
+        <v>9.2752300000000005</v>
+      </c>
+      <c r="I28">
+        <v>1.6390999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.97136800000000001</v>
+      </c>
+      <c r="D29">
+        <v>1.9109999999999999E-3</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>0.15173400000000001</v>
+      </c>
+      <c r="H29">
+        <v>18.859000000000002</v>
+      </c>
+      <c r="I29">
+        <v>2.0694000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.94748900000000003</v>
+      </c>
+      <c r="D30">
+        <v>1.825E-3</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
         <v>0.17999799999999999</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>11.790900000000001</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>3.5904999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11242,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11254,675 +11246,668 @@
     <col min="7" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.54937599999999998</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.54742800000000003</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.27714100000000003</v>
-      </c>
-      <c r="C6">
-        <v>1.6899999999999999E-4</v>
-      </c>
-      <c r="D6">
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0.56584299999999998</v>
-      </c>
-      <c r="H6">
-        <v>3.4E-5</v>
-      </c>
-      <c r="I6">
-        <v>3.3000000000000003E-5</v>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.18742500000000001</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.6000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.4E-5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.54761300000000002</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.3999999999999997E-5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>7.6000000000000004E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0.1469</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.6999999999999998E-5</v>
+        <v>1.93E-4</v>
       </c>
       <c r="D8">
-        <v>3.4E-5</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0.53178999999999998</v>
+        <v>2.4399999999999999E-4</v>
       </c>
       <c r="H8">
-        <v>1.6000000000000001E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="I8">
-        <v>2.0000000000000001E-4</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>0.12007</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.8000000000000002E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="D9">
-        <v>3.6000000000000001E-5</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0.58840999999999999</v>
+        <v>2.7900000000000001E-4</v>
       </c>
       <c r="H9">
-        <v>2.1699999999999999E-4</v>
+        <v>5.8E-5</v>
       </c>
       <c r="I9">
-        <v>1.5100000000000001E-4</v>
+        <v>8.7000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>0.10296</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>4.1E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="D10">
-        <v>3.6999999999999998E-5</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>0.38298700000000002</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="H10">
-        <v>4.5000000000000003E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="I10">
-        <v>3.8999999999999999E-5</v>
+        <v>1.4200000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>9.1952000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.1E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="D11">
-        <v>3.6000000000000001E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>0.60596700000000003</v>
+        <v>3.8499999999999998E-4</v>
       </c>
       <c r="H11">
-        <v>2.8299999999999999E-4</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I11">
-        <v>1.93E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>8.3343E-2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>4.1E-5</v>
+        <v>3.6999999999999998E-5</v>
       </c>
       <c r="D12">
-        <v>3.8000000000000002E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>0.64439800000000003</v>
+        <v>3.88E-4</v>
       </c>
       <c r="H12">
-        <v>1.11E-4</v>
+        <v>1.5200000000000001E-4</v>
       </c>
       <c r="I12">
-        <v>1.3999999999999999E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>7.4409000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.1999999999999998E-5</v>
+        <v>3.8000000000000002E-5</v>
       </c>
       <c r="D13">
-        <v>3.8000000000000002E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>0.65314499999999998</v>
+        <v>3.5300000000000002E-4</v>
       </c>
       <c r="H13">
-        <v>2.0699999999999999E-4</v>
+        <v>1.5799999999999999E-4</v>
       </c>
       <c r="I13">
-        <v>5.1999999999999997E-5</v>
+        <v>6.6000000000000005E-5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>6.8752999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4.3000000000000002E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="D14">
-        <v>3.8999999999999999E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>0.63864100000000001</v>
+        <v>4.4099999999999999E-4</v>
       </c>
       <c r="H14">
-        <v>2.92E-4</v>
+        <v>1.64E-4</v>
       </c>
       <c r="I14">
-        <v>2.23E-4</v>
+        <v>5.8E-5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>6.2483999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>4.3000000000000002E-5</v>
+        <v>3.8999999999999999E-5</v>
       </c>
       <c r="D15">
-        <v>3.8999999999999999E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0.67093999999999998</v>
+        <v>3.9800000000000002E-4</v>
       </c>
       <c r="H15">
-        <v>3.1100000000000002E-4</v>
+        <v>2.12E-4</v>
       </c>
       <c r="I15">
-        <v>2.1800000000000001E-4</v>
+        <v>6.3999999999999997E-5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>5.8604999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4.3999999999999999E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="D16">
-        <v>3.8999999999999999E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.67627099999999996</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="H16">
-        <v>3.4200000000000002E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="I16">
-        <v>2.43E-4</v>
+        <v>5.5999999999999999E-5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>5.4130999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4.5000000000000003E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="D17">
-        <v>3.8999999999999999E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>0.80831799999999998</v>
+        <v>4.35E-4</v>
       </c>
       <c r="H17">
-        <v>3.2000000000000003E-4</v>
+        <v>2.7900000000000001E-4</v>
       </c>
       <c r="I17">
-        <v>2.6400000000000002E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>5.0842999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4.3999999999999999E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="D18">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
-        <v>0.78097799999999995</v>
-      </c>
-      <c r="H18">
-        <v>2.61E-4</v>
-      </c>
-      <c r="I18">
-        <v>3.2699999999999998E-4</v>
+        <v>4.3000000000000002E-5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>4.9056000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4.5000000000000003E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="D19">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>0.83228999999999997</v>
+        <v>0.80831799999999998</v>
       </c>
       <c r="H19">
-        <v>2.6800000000000001E-4</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="I19">
-        <v>7.2000000000000002E-5</v>
+        <v>2.6400000000000002E-4</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>4.5413000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>4.3999999999999999E-5</v>
+        <v>4.1E-5</v>
       </c>
       <c r="D20">
-        <v>3.8999999999999999E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>0.89947900000000003</v>
+        <v>0.78097799999999995</v>
       </c>
       <c r="H20">
-        <v>3.4600000000000001E-4</v>
+        <v>2.61E-4</v>
       </c>
       <c r="I20">
-        <v>1.4799999999999999E-4</v>
+        <v>3.2699999999999998E-4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>4.4096999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>4.6E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D21">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>0.54512700000000003</v>
+        <v>0.83228999999999997</v>
       </c>
       <c r="H21">
-        <v>4.26E-4</v>
+        <v>2.6800000000000001E-4</v>
       </c>
       <c r="I21">
-        <v>2.7300000000000002E-4</v>
+        <v>7.2000000000000002E-5</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>4.1286999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>4.6E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D22">
-        <v>3.8999999999999999E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>0.89452699999999996</v>
+        <v>0.89947900000000003</v>
       </c>
       <c r="H22">
-        <v>3.1300000000000002E-4</v>
+        <v>3.4600000000000001E-4</v>
       </c>
       <c r="I22">
-        <v>5.1500000000000005E-4</v>
+        <v>1.4799999999999999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>4.0291E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>4.8000000000000001E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D23">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>0.93850199999999995</v>
+        <v>0.54512700000000003</v>
       </c>
       <c r="H23">
-        <v>3.79E-4</v>
+        <v>4.26E-4</v>
       </c>
       <c r="I23">
-        <v>3.0800000000000001E-4</v>
+        <v>2.7300000000000002E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>3.8353999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>4.6E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D24">
-        <v>3.8999999999999999E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>0.82129799999999997</v>
+        <v>0.89452699999999996</v>
       </c>
       <c r="H24">
-        <v>2.5000000000000001E-4</v>
+        <v>3.1300000000000002E-4</v>
       </c>
       <c r="I24">
-        <v>2.9799999999999998E-4</v>
+        <v>5.1500000000000005E-4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>3.6978999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>5.0000000000000002E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D25">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>0.99218700000000004</v>
+        <v>0.93850199999999995</v>
       </c>
       <c r="H25">
-        <v>4.9799999999999996E-4</v>
+        <v>3.79E-4</v>
       </c>
       <c r="I25">
-        <v>2.03E-4</v>
+        <v>3.0800000000000001E-4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>3.5903999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4.8000000000000001E-5</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="D26">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>0.42810999999999999</v>
+        <v>0.82129799999999997</v>
       </c>
       <c r="H26">
-        <v>3.01E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="I26">
-        <v>5.1E-5</v>
+        <v>2.9799999999999998E-4</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>3.4386E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>4.8999999999999998E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="D27">
-        <v>4.0000000000000003E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27">
-        <v>1.0406</v>
+        <v>0.99218700000000004</v>
       </c>
       <c r="H27">
-        <v>5.2099999999999998E-4</v>
+        <v>4.9799999999999996E-4</v>
       </c>
       <c r="I27">
-        <v>4.0099999999999999E-4</v>
+        <v>2.03E-4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="D28">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>0.42810999999999999</v>
+      </c>
+      <c r="H28">
+        <v>3.01E-4</v>
+      </c>
+      <c r="I28">
+        <v>5.1E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="D29">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>1.0406</v>
+      </c>
+      <c r="H29">
+        <v>5.2099999999999998E-4</v>
+      </c>
+      <c r="I29">
+        <v>4.0099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>24</v>
       </c>
-      <c r="B28">
-        <v>3.3223999999999997E-2</v>
-      </c>
-      <c r="C28">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="D28">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="F28">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="D30">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="F30">
         <v>24</v>
       </c>
-      <c r="G28">
+      <c r="G30">
         <v>1.005134</v>
       </c>
-      <c r="H28">
+      <c r="H30">
         <v>3.1399999999999999E-4</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>5.8399999999999999E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11932,11 +11917,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11944,819 +11927,824 @@
     <col min="7" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <f>Detailed!B5/Detailed_Avg!B5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" t="e">
-        <f>Detailed!C5/Detailed_Avg!C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" t="e">
-        <f>Detailed!D5/Detailed_Avg!D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f>Detailed!G5/Detailed_Avg!G5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" t="e">
-        <f>Detailed!H5/Detailed_Avg!H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <f>Detailed!I5/Detailed_Avg!I5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <f>Detailed!B6/Detailed_Avg!B6</f>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <f>Detailed!C6/Detailed_Avg!C6</f>
-        <v>5.5325443786982254</v>
-      </c>
-      <c r="D6">
-        <f>Detailed!D6/Detailed_Avg!D6</f>
-        <v>4253.9375</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <f>Detailed!G6/Detailed_Avg!G6</f>
-        <v>0.90588025300304142</v>
-      </c>
-      <c r="H6">
-        <f>Detailed!H6/Detailed_Avg!H6</f>
-        <v>1930579.411764706</v>
-      </c>
-      <c r="I6">
-        <f>Detailed!I6/Detailed_Avg!I6</f>
-        <v>174999.09090909088</v>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="e">
         <f>Detailed!B7/Detailed_Avg!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C7" t="e">
         <f>Detailed!C7/Detailed_Avg!C7</f>
-        <v>2099.7777777777778</v>
-      </c>
-      <c r="D7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" t="e">
         <f>Detailed!D7/Detailed_Avg!D7</f>
-        <v>2721.2941176470586</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="e">
         <f>Detailed!G7/Detailed_Avg!G7</f>
-        <v>0.84494889639216009</v>
-      </c>
-      <c r="H7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
         <f>Detailed!H7/Detailed_Avg!H7</f>
-        <v>804943.75</v>
-      </c>
-      <c r="I7">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" t="e">
         <f>Detailed!I7/Detailed_Avg!I7</f>
-        <v>463467.10526315786</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="e">
         <f>Detailed!B8/Detailed_Avg!B8</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C8">
         <f>Detailed!C8/Detailed_Avg!C8</f>
-        <v>3180</v>
+        <v>3.6632124352331603</v>
       </c>
       <c r="D8">
         <f>Detailed!D8/Detailed_Avg!D8</f>
-        <v>2066.6470588235293</v>
+        <v>602.0857142857144</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f>Detailed!G8/Detailed_Avg!G8</f>
-        <v>0.50924048966697388</v>
+        <v>601.62704918032796</v>
       </c>
       <c r="H8">
         <f>Detailed!H8/Detailed_Avg!H8</f>
-        <v>259663.125</v>
+        <v>1853422.7272727273</v>
       </c>
       <c r="I8">
         <f>Detailed!I8/Detailed_Avg!I8</f>
-        <v>66541</v>
+        <v>1531865.4545454546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="e">
         <f>Detailed!B9/Detailed_Avg!B9</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C9">
         <f>Detailed!C9/Detailed_Avg!C9</f>
-        <v>4798.28947368421</v>
+        <v>7370.4222222222215</v>
       </c>
       <c r="D9">
         <f>Detailed!D9/Detailed_Avg!D9</f>
-        <v>1653.5277777777776</v>
+        <v>402.97142857142859</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <f>Detailed!G9/Detailed_Avg!G9</f>
-        <v>0.45789670467871041</v>
+        <v>372.54121863799281</v>
       </c>
       <c r="H9">
         <f>Detailed!H9/Detailed_Avg!H9</f>
-        <v>187637.32718894011</v>
+        <v>1388794.8275862068</v>
       </c>
       <c r="I9">
         <f>Detailed!I9/Detailed_Avg!I9</f>
-        <v>54268.675496688738</v>
+        <v>383091.9540229885</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="e">
         <f>Detailed!B10/Detailed_Avg!B10</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C10">
         <f>Detailed!C10/Detailed_Avg!C10</f>
-        <v>2958.5365853658536</v>
+        <v>23378.205882352941</v>
       </c>
       <c r="D10">
         <f>Detailed!D10/Detailed_Avg!D10</f>
-        <v>1374.8108108108108</v>
+        <v>296.74285714285713</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f>Detailed!G10/Detailed_Avg!G10</f>
-        <v>0.57608743899923487</v>
+        <v>244.05882352941174</v>
       </c>
       <c r="H10">
         <f>Detailed!H10/Detailed_Avg!H10</f>
-        <v>198014.44444444444</v>
+        <v>571467.69230769237</v>
       </c>
       <c r="I10">
         <f>Detailed!I10/Detailed_Avg!I10</f>
-        <v>22030.128205128207</v>
+        <v>89335.915492957749</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="e">
         <f>Detailed!B11/Detailed_Avg!B11</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C11">
         <f>Detailed!C11/Detailed_Avg!C11</f>
-        <v>3554.0975609756092</v>
+        <v>31267.837837837844</v>
       </c>
       <c r="D11">
         <f>Detailed!D11/Detailed_Avg!D11</f>
-        <v>1167.9722222222222</v>
+        <v>231.70270270270274</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <f>Detailed!G11/Detailed_Avg!G11</f>
-        <v>0.28368541521237955</v>
+        <v>135.48571428571429</v>
       </c>
       <c r="H11">
         <f>Detailed!H11/Detailed_Avg!H11</f>
-        <v>187246.9964664311</v>
+        <v>515678.35820895515</v>
       </c>
       <c r="I11">
         <f>Detailed!I11/Detailed_Avg!I11</f>
-        <v>69585.492227979266</v>
+        <v>79917.65625</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="e">
         <f>Detailed!B12/Detailed_Avg!B12</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C12">
         <f>Detailed!C12/Detailed_Avg!C12</f>
-        <v>3750.1463414634145</v>
+        <v>38351.621621621627</v>
       </c>
       <c r="D12">
         <f>Detailed!D12/Detailed_Avg!D12</f>
-        <v>1015.8947368421052</v>
+        <v>187</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f>Detailed!G12/Detailed_Avg!G12</f>
-        <v>0.36426711442307391</v>
+        <v>124.49742268041237</v>
       </c>
       <c r="H12">
         <f>Detailed!H12/Detailed_Avg!H12</f>
-        <v>202589.1891891892</v>
+        <v>416326.9736842105</v>
       </c>
       <c r="I12">
         <f>Detailed!I12/Detailed_Avg!I12</f>
-        <v>44840.5</v>
+        <v>60013.392857142855</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="e">
         <f>Detailed!B13/Detailed_Avg!B13</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C13">
         <f>Detailed!C13/Detailed_Avg!C13</f>
-        <v>3996.4285714285716</v>
+        <v>40309.473684210527</v>
       </c>
       <c r="D13">
         <f>Detailed!D13/Detailed_Avg!D13</f>
-        <v>889.36842105263156</v>
+        <v>159.14999999999998</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <f>Detailed!G13/Detailed_Avg!G13</f>
-        <v>0.44077808143674069</v>
+        <v>123.21529745042493</v>
       </c>
       <c r="H13">
         <f>Detailed!H13/Detailed_Avg!H13</f>
-        <v>184480.67632850242</v>
+        <v>379670.25316455698</v>
       </c>
       <c r="I13">
         <f>Detailed!I13/Detailed_Avg!I13</f>
-        <v>106431.92307692309</v>
+        <v>43106.515151515145</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="e">
         <f>Detailed!B14/Detailed_Avg!B14</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C14">
         <f>Detailed!C14/Detailed_Avg!C14</f>
-        <v>5290.2093023255811</v>
+        <v>40428.974358974359</v>
       </c>
       <c r="D14">
         <f>Detailed!D14/Detailed_Avg!D14</f>
-        <v>790.53846153846155</v>
+        <v>139.94999999999999</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f>Detailed!G14/Detailed_Avg!G14</f>
-        <v>0.23741663939521579</v>
+        <v>90.519274376417243</v>
       </c>
       <c r="H14">
         <f>Detailed!H14/Detailed_Avg!H14</f>
-        <v>118060.95890410958</v>
+        <v>327487.19512195123</v>
       </c>
       <c r="I14">
         <f>Detailed!I14/Detailed_Avg!I14</f>
-        <v>17935.739910313903</v>
+        <v>66186.379310344826</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="e">
         <f>Detailed!B15/Detailed_Avg!B15</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C15">
         <f>Detailed!C15/Detailed_Avg!C15</f>
-        <v>3487.8139534883721</v>
+        <v>36479.743589743586</v>
       </c>
       <c r="D15">
         <f>Detailed!D15/Detailed_Avg!D15</f>
-        <v>733.76923076923083</v>
+        <v>120.11904761904762</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
         <f>Detailed!G15/Detailed_Avg!G15</f>
-        <v>0.32875965063940144</v>
+        <v>100.98743718592964</v>
       </c>
       <c r="H15">
         <f>Detailed!H15/Detailed_Avg!H15</f>
-        <v>103899.03536977492</v>
+        <v>240798.11320754717</v>
       </c>
       <c r="I15">
         <f>Detailed!I15/Detailed_Avg!I15</f>
-        <v>18501.100917431191</v>
+        <v>20891.875</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="e">
         <f>Detailed!B16/Detailed_Avg!B16</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C16">
         <f>Detailed!C16/Detailed_Avg!C16</f>
-        <v>4204.909090909091</v>
+        <v>38707.5</v>
       </c>
       <c r="D16">
         <f>Detailed!D16/Detailed_Avg!D16</f>
-        <v>664.79487179487182</v>
+        <v>110.38095238095239</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <f>Detailed!G16/Detailed_Avg!G16</f>
-        <v>0.28529834933037201</v>
+        <v>86.783295711060958</v>
       </c>
       <c r="H16">
         <f>Detailed!H16/Detailed_Avg!H16</f>
-        <v>72828.654970760224</v>
+        <v>212265.18218623483</v>
       </c>
       <c r="I16">
         <f>Detailed!I16/Detailed_Avg!I16</f>
-        <v>2756.2016460905352</v>
+        <v>47877.142857142855</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="e">
         <f>Detailed!B17/Detailed_Avg!B17</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C17">
         <f>Detailed!C17/Detailed_Avg!C17</f>
-        <v>3898.4444444444443</v>
+        <v>38041</v>
       </c>
       <c r="D17">
         <f>Detailed!D17/Detailed_Avg!D17</f>
-        <v>611.89743589743591</v>
+        <v>98.232558139534888</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <f>Detailed!G17/Detailed_Avg!G17</f>
-        <v>0.27859580016775576</v>
+        <v>79.402298850574709</v>
       </c>
       <c r="H17">
         <f>Detailed!H17/Detailed_Avg!H17</f>
-        <v>61105.937499999993</v>
+        <v>188135.84229390681</v>
       </c>
       <c r="I17">
         <f>Detailed!I17/Detailed_Avg!I17</f>
-        <v>2306.2992424242425</v>
+        <v>43116</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="e">
         <f>Detailed!B18/Detailed_Avg!B18</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C18">
         <f>Detailed!C18/Detailed_Avg!C18</f>
-        <v>4629.022727272727</v>
+        <v>38094.390243902439</v>
       </c>
       <c r="D18">
         <f>Detailed!D18/Detailed_Avg!D18</f>
-        <v>563.29787234042556</v>
+        <v>88.558139534883722</v>
       </c>
       <c r="F18">
-        <v>14</v>
-      </c>
-      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="G18" t="e">
         <f>Detailed!G18/Detailed_Avg!G18</f>
-        <v>0.27375675115048054</v>
-      </c>
-      <c r="H18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
         <f>Detailed!H18/Detailed_Avg!H18</f>
-        <v>60559.00383141762</v>
-      </c>
-      <c r="I18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" t="e">
         <f>Detailed!I18/Detailed_Avg!I18</f>
-        <v>174.96024464831805</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="e">
         <f>Detailed!B19/Detailed_Avg!B19</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C19">
         <f>Detailed!C19/Detailed_Avg!C19</f>
-        <v>5272.4</v>
+        <v>36096.829268292684</v>
       </c>
       <c r="D19">
         <f>Detailed!D19/Detailed_Avg!D19</f>
-        <v>521.82499999999993</v>
+        <v>81.255813953488371</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19">
         <f>Detailed!G19/Detailed_Avg!G19</f>
-        <v>0.27932211128332673</v>
+        <v>0.27859580016775576</v>
       </c>
       <c r="H19">
         <f>Detailed!H19/Detailed_Avg!H19</f>
-        <v>82898.880597014926</v>
+        <v>61105.937499999993</v>
       </c>
       <c r="I19">
         <f>Detailed!I19/Detailed_Avg!I19</f>
-        <v>13265.930555555555</v>
+        <v>2306.2992424242425</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="B20" t="e">
         <f>Detailed!B20/Detailed_Avg!B20</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C20">
         <f>Detailed!C20/Detailed_Avg!C20</f>
-        <v>3784.7727272727275</v>
+        <v>31253.658536585368</v>
       </c>
       <c r="D20">
         <f>Detailed!D20/Detailed_Avg!D20</f>
-        <v>494.20512820512818</v>
+        <v>76.488372093023244</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <f>Detailed!G20/Detailed_Avg!G20</f>
-        <v>0.16522120027260223</v>
+        <v>0.27375675115048054</v>
       </c>
       <c r="H20">
         <f>Detailed!H20/Detailed_Avg!H20</f>
-        <v>49319.364161849706</v>
+        <v>60559.00383141762</v>
       </c>
       <c r="I20">
         <f>Detailed!I20/Detailed_Avg!I20</f>
-        <v>159.87837837837839</v>
+        <v>174.96024464831805</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="e">
         <f>Detailed!B21/Detailed_Avg!B21</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C21">
         <f>Detailed!C21/Detailed_Avg!C21</f>
-        <v>5222.760869565217</v>
+        <v>30852.142857142859</v>
       </c>
       <c r="D21">
         <f>Detailed!D21/Detailed_Avg!D21</f>
-        <v>453.32499999999993</v>
+        <v>70.093023255813961</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21">
         <f>Detailed!G21/Detailed_Avg!G21</f>
-        <v>0.26610129382694303</v>
+        <v>0.27932211128332673</v>
       </c>
       <c r="H21">
         <f>Detailed!H21/Detailed_Avg!H21</f>
-        <v>47406.572769953054</v>
+        <v>82898.880597014926</v>
       </c>
       <c r="I21">
         <f>Detailed!I21/Detailed_Avg!I21</f>
-        <v>4465.3113553113553</v>
+        <v>13265.930555555555</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="B22" t="e">
         <f>Detailed!B22/Detailed_Avg!B22</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C22">
         <f>Detailed!C22/Detailed_Avg!C22</f>
-        <v>4069.260869565217</v>
+        <v>28051.666666666668</v>
       </c>
       <c r="D22">
         <f>Detailed!D22/Detailed_Avg!D22</f>
-        <v>437.41025641025647</v>
+        <v>65.348837209302317</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <f>Detailed!G22/Detailed_Avg!G22</f>
-        <v>0.17524009895732606</v>
+        <v>0.16522120027260223</v>
       </c>
       <c r="H22">
         <f>Detailed!H22/Detailed_Avg!H22</f>
-        <v>42201.277955271558</v>
+        <v>49319.364161849706</v>
       </c>
       <c r="I22">
         <f>Detailed!I22/Detailed_Avg!I22</f>
-        <v>69.763106796116503</v>
+        <v>159.87837837837839</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="e">
         <f>Detailed!B23/Detailed_Avg!B23</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C23">
         <f>Detailed!C23/Detailed_Avg!C23</f>
-        <v>2770.25</v>
+        <v>29106.904761904767</v>
       </c>
       <c r="D23">
         <f>Detailed!D23/Detailed_Avg!D23</f>
-        <v>416.5</v>
+        <v>61.162790697674417</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <f>Detailed!G23/Detailed_Avg!G23</f>
-        <v>0.14767043650413106</v>
+        <v>0.26610129382694303</v>
       </c>
       <c r="H23">
         <f>Detailed!H23/Detailed_Avg!H23</f>
-        <v>46065.963060686016</v>
+        <v>47406.572769953054</v>
       </c>
       <c r="I23">
         <f>Detailed!I23/Detailed_Avg!I23</f>
-        <v>212.33441558441558</v>
+        <v>4465.3113553113553</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="e">
         <f>Detailed!B24/Detailed_Avg!B24</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C24">
         <f>Detailed!C24/Detailed_Avg!C24</f>
-        <v>3855.282608695652</v>
+        <v>28854.285714285717</v>
       </c>
       <c r="D24">
         <f>Detailed!D24/Detailed_Avg!D24</f>
-        <v>397.38461538461536</v>
+        <v>56.813953488372086</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <f>Detailed!G24/Detailed_Avg!G24</f>
-        <v>0.25522648295746492</v>
+        <v>0.17524009895732606</v>
       </c>
       <c r="H24">
         <f>Detailed!H24/Detailed_Avg!H24</f>
-        <v>38974.44</v>
+        <v>42201.277955271558</v>
       </c>
       <c r="I24">
         <f>Detailed!I24/Detailed_Avg!I24</f>
-        <v>110.51342281879194</v>
+        <v>69.763106796116503</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="B25" t="e">
         <f>Detailed!B25/Detailed_Avg!B25</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C25">
         <f>Detailed!C25/Detailed_Avg!C25</f>
-        <v>3961.62</v>
+        <v>27550.238095238099</v>
       </c>
       <c r="D25">
         <f>Detailed!D25/Detailed_Avg!D25</f>
-        <v>365.82499999999999</v>
+        <v>53.477272727272727</v>
       </c>
       <c r="F25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <f>Detailed!G25/Detailed_Avg!G25</f>
-        <v>0.18936954424921915</v>
+        <v>0.14767043650413106</v>
       </c>
       <c r="H25">
         <f>Detailed!H25/Detailed_Avg!H25</f>
-        <v>39748.393574297188</v>
+        <v>46065.963060686016</v>
       </c>
       <c r="I25">
         <f>Detailed!I25/Detailed_Avg!I25</f>
-        <v>97.536945812807886</v>
+        <v>212.33441558441558</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="B26" t="e">
         <f>Detailed!B26/Detailed_Avg!B26</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C26">
         <f>Detailed!C26/Detailed_Avg!C26</f>
-        <v>3355.3333333333335</v>
+        <v>25564.047619047622</v>
       </c>
       <c r="D26">
         <f>Detailed!D26/Detailed_Avg!D26</f>
-        <v>352.34999999999997</v>
+        <v>50.56818181818182</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <f>Detailed!G26/Detailed_Avg!G26</f>
-        <v>0.32453575015766978</v>
+        <v>0.25522648295746492</v>
       </c>
       <c r="H26">
         <f>Detailed!H26/Detailed_Avg!H26</f>
-        <v>30814.717607973424</v>
+        <v>38974.44</v>
       </c>
       <c r="I26">
         <f>Detailed!I26/Detailed_Avg!I26</f>
-        <v>321.39215686274508</v>
+        <v>110.51342281879194</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="B27" t="e">
         <f>Detailed!B27/Detailed_Avg!B27</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C27">
         <f>Detailed!C27/Detailed_Avg!C27</f>
-        <v>3217.5306122448978</v>
+        <v>25277.441860465115</v>
       </c>
       <c r="D27">
         <f>Detailed!D27/Detailed_Avg!D27</f>
-        <v>333.4</v>
+        <v>47.840909090909093</v>
       </c>
       <c r="F27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27">
         <f>Detailed!G27/Detailed_Avg!G27</f>
-        <v>0.14581395348837212</v>
+        <v>0.18936954424921915</v>
       </c>
       <c r="H27">
         <f>Detailed!H27/Detailed_Avg!H27</f>
-        <v>36197.696737044149</v>
+        <v>39748.393574297188</v>
       </c>
       <c r="I27">
         <f>Detailed!I27/Detailed_Avg!I27</f>
-        <v>51.605985037406484</v>
+        <v>97.536945812807886</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="B28" t="e">
         <f>Detailed!B28/Detailed_Avg!B28</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C28">
         <f>Detailed!C28/Detailed_Avg!C28</f>
-        <v>3392.3125</v>
+        <v>22554.5</v>
       </c>
       <c r="D28">
         <f>Detailed!D28/Detailed_Avg!D28</f>
-        <v>327.55</v>
+        <v>45.795454545454547</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28">
         <f>Detailed!G28/Detailed_Avg!G28</f>
-        <v>0.17907861041413384</v>
+        <v>0.32453575015766978</v>
       </c>
       <c r="H28">
         <f>Detailed!H28/Detailed_Avg!H28</f>
-        <v>37550.636942675163</v>
+        <v>30814.717607973424</v>
       </c>
       <c r="I28">
         <f>Detailed!I28/Detailed_Avg!I28</f>
+        <v>321.39215686274508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="e">
+        <f>Detailed!B29/Detailed_Avg!B29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29">
+        <f>Detailed!C29/Detailed_Avg!C29</f>
+        <v>22589.953488372092</v>
+      </c>
+      <c r="D29">
+        <f>Detailed!D29/Detailed_Avg!D29</f>
+        <v>43.43181818181818</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <f>Detailed!G29/Detailed_Avg!G29</f>
+        <v>0.14581395348837212</v>
+      </c>
+      <c r="H29">
+        <f>Detailed!H29/Detailed_Avg!H29</f>
+        <v>36197.696737044149</v>
+      </c>
+      <c r="I29">
+        <f>Detailed!I29/Detailed_Avg!I29</f>
+        <v>51.605985037406484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="e">
+        <f>Detailed!B30/Detailed_Avg!B30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30">
+        <f>Detailed!C30/Detailed_Avg!C30</f>
+        <v>22034.627906976744</v>
+      </c>
+      <c r="D30">
+        <f>Detailed!D30/Detailed_Avg!D30</f>
+        <v>41.477272727272727</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <f>Detailed!G30/Detailed_Avg!G30</f>
+        <v>0.17907861041413384</v>
+      </c>
+      <c r="H30">
+        <f>Detailed!H30/Detailed_Avg!H30</f>
+        <v>37550.636942675163</v>
+      </c>
+      <c r="I30">
+        <f>Detailed!I30/Detailed_Avg!I30</f>
         <v>61.481164383561641</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
